--- a/server/seeds/authorities.xlsx
+++ b/server/seeds/authorities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="10740"/>
+    <workbookView windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="35" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>ID</t>
   </si>
@@ -31,15 +31,6 @@
     <t>PID</t>
   </si>
   <si>
-    <t>00000001-0000-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>管理后台</t>
-  </si>
-  <si>
-    <t>/admin</t>
-  </si>
-  <si>
     <t>00000000-0000-0000-0000-000000000001</t>
   </si>
   <si>
@@ -106,10 +97,118 @@
     <t>00000000-0000-0000-0000-000000000008</t>
   </si>
   <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>/studio/feedback</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000009</t>
+  </si>
+  <si>
     <t>站点设置</t>
   </si>
   <si>
     <t>/studio/setting</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000010</t>
+  </si>
+  <si>
+    <t>轮播管理</t>
+  </si>
+  <si>
+    <t>/studio/content/carousel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000011</t>
+  </si>
+  <si>
+    <t>文章管理</t>
+  </si>
+  <si>
+    <t>/studio/content/list</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000012</t>
+  </si>
+  <si>
+    <t>文章分类</t>
+  </si>
+  <si>
+    <t>/studio/content/category</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000013</t>
+  </si>
+  <si>
+    <t>服务列表</t>
+  </si>
+  <si>
+    <t>/studio/service/list</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000014</t>
+  </si>
+  <si>
+    <t>服务分类</t>
+  </si>
+  <si>
+    <t>/studio/service/category</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000015</t>
+  </si>
+  <si>
+    <t>流程模版</t>
+  </si>
+  <si>
+    <t>/studio/flow/template</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000016</t>
+  </si>
+  <si>
+    <t>流程审批</t>
+  </si>
+  <si>
+    <t>/studio/flow/list</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000017</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>/studio/users/list</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000018</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>/studio/auth/role</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000019</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>/studio/auth/authority</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000020</t>
+  </si>
+  <si>
+    <t>意见反馈列表</t>
+  </si>
+  <si>
+    <t>/studio/feedback/list</t>
   </si>
 </sst>
 </file>
@@ -117,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,8 +259,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,99 +361,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,12 +395,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,7 +455,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,145 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,15 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,11 +618,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,164 +674,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
@@ -1085,10 +1184,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1099,13 +1198,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1116,13 +1212,10 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1133,13 +1226,10 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1150,13 +1240,10 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1167,13 +1254,10 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1184,13 +1268,10 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1201,13 +1282,10 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1218,10 +1296,194 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
